--- a/docs/Kartläggning_skola.xlsx
+++ b/docs/Kartläggning_skola.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87882C3-0041-974F-B9B7-968A1FF8E270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A6F03-C5B3-374F-932C-D1D24EF8B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Kartläggande frågor" sheetId="1" r:id="rId1"/>
+    <sheet name="Sammanfattning Övergripande" sheetId="2" r:id="rId1"/>
+    <sheet name="Kartläggande frågor" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>Skolsociala team</t>
   </si>
@@ -59,9 +60,6 @@
     <t>Denna kartläggning besvaras av kommun:</t>
   </si>
   <si>
-    <t>Kartläggning Basutbud MÅLUPPFYLLELSE FÖRSKOLA OCH SKOLA</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -264,13 +262,40 @@
   </si>
   <si>
     <t>Barn och unga involveras i planeringen och genomförandet av organiserade aktiviteter.</t>
+  </si>
+  <si>
+    <t>Kryssa i de påståenden som stämmer för er kommun</t>
+  </si>
+  <si>
+    <t>Kartläggning GOD FÖRÄLDRA-BARNRELATION</t>
+  </si>
+  <si>
+    <t>SAMMANFATTNING</t>
+  </si>
+  <si>
+    <t>26-XX-XX</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nej</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Förskolorna i vår kommun erbjuder kunskapsbaserade insatser för att främja barns trygghet och/eller hälsa. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skolorna i vår kommun erbjuder kunskapsbaserade insatser för att främja barns trygghet och/eller hälsa. </t>
+  </si>
+  <si>
+    <t>Kartläggning MÅLUPPFYLLELSE FÖRSKOLA OCH SKOLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +327,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +356,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -472,11 +517,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -531,6 +609,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -550,6 +649,61 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Bildobjekt 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D24C229-1792-5541-8DF5-DB49802C59CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5397500" y="38100"/>
+          <a:ext cx="1676400" cy="879475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -920,10 +1074,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A8AD4-9408-FC48-AD17-DF1F4FB25F37}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="50.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19">
+      <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="20">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="7" customFormat="1" ht="18" thickBot="1">
+      <c r="A8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="81" thickTop="1">
+      <c r="A9" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="28" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="40">
+      <c r="A11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="60">
+      <c r="A12" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="20">
+      <c r="A13" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="60">
+      <c r="A14" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" ht="60">
+      <c r="A15" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="20">
+      <c r="A16" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="20">
+      <c r="A18" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="20">
+      <c r="A19" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:XFD16" xr:uid="{858A854B-9D65-5B41-BD47-FDE2B676C44E}">
+      <formula1>$A$18:$A$19</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
+  <dimension ref="A1:G76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -932,7 +1235,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="12" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
@@ -940,68 +1243,62 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17">
+      <c r="A4" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27"/>
+    </row>
+    <row r="6" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
-      <c r="A5" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="17" thickTop="1">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" spans="1:7" ht="44">
+      <c r="A8" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="80">
+      <c r="A9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="17" thickTop="1">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="44">
-      <c r="A7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1" ht="80">
-      <c r="A8" s="13" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A10" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A10" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1012,7 +1309,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A11" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1023,7 +1320,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1034,7 +1331,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A13" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1045,7 +1342,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A14" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1054,42 +1351,42 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" ht="38" customHeight="1">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="38" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="40">
+      <c r="A17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="40">
-      <c r="A16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A17" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A18" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
@@ -1098,9 +1395,9 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A19" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B19" s="5"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
@@ -1109,7 +1406,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A20" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1118,139 +1415,142 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="33" customHeight="1">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A21" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1">
+      <c r="A22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="40">
+      <c r="A23" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="40">
-      <c r="A22" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A23" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
     </row>
     <row r="24" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A24" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="68" customHeight="1">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A25" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B25" s="5"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="40">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A27" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A28" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="33" customHeight="1">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A29" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="33" customHeight="1">
+      <c r="A30" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+    </row>
+    <row r="31" spans="1:7" s="16" customFormat="1" ht="60">
+      <c r="A31" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" s="16" customFormat="1" ht="60">
-      <c r="A30" s="13" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="4" customFormat="1" ht="60">
+      <c r="A32" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A31" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="80">
-      <c r="A32" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="68" customHeight="1">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="80">
       <c r="A33" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="B33" s="5"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" ht="40" customHeight="1">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="68" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" ht="40" customHeight="1">
+      <c r="A35" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" s="16" customFormat="1" ht="20">
-      <c r="A35" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A36" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" s="16" customFormat="1" ht="20">
+      <c r="A36" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A37" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1258,7 +1558,7 @@
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A38" s="25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1266,7 +1566,7 @@
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A39" s="25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1274,55 +1574,55 @@
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A40" s="25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="61" customHeight="1">
-      <c r="A41" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" s="16" customFormat="1" ht="60">
-      <c r="A42" s="23" t="s">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A41" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="61" customHeight="1">
+      <c r="A42" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" s="16" customFormat="1" ht="60">
+      <c r="A43" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+    </row>
+    <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A44" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-    </row>
-    <row r="43" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A43" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" ht="20">
-      <c r="A44" s="26" t="s">
-        <v>49</v>
       </c>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A45" s="25" t="s">
-        <v>50</v>
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="20">
+      <c r="A45" s="26" t="s">
+        <v>48</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" ht="20">
-      <c r="A46" s="26" t="s">
-        <v>51</v>
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A46" s="25" t="s">
+        <v>49</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -1330,7 +1630,7 @@
     </row>
     <row r="47" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A47" s="26" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1338,7 +1638,7 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A48" s="26" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1346,7 +1646,7 @@
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A49" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1354,7 +1654,7 @@
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A50" s="26" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1362,7 +1662,7 @@
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A51" s="26" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1370,7 +1670,7 @@
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A52" s="26" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1378,7 +1678,7 @@
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A53" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1386,7 +1686,7 @@
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A54" s="26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
@@ -1394,7 +1694,7 @@
     </row>
     <row r="55" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A55" s="26" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1402,7 +1702,7 @@
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A56" s="26" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1410,7 +1710,7 @@
     </row>
     <row r="57" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A57" s="26" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1418,7 +1718,7 @@
     </row>
     <row r="58" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A58" s="26" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1426,15 +1726,15 @@
     </row>
     <row r="59" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A59" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
+    <row r="60" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A60" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
@@ -1442,7 +1742,7 @@
     </row>
     <row r="61" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A61" s="26" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
@@ -1458,15 +1758,15 @@
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A64" s="25" t="s">
-        <v>65</v>
+    <row r="64" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
+      <c r="A64" s="26" t="s">
+        <v>62</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
@@ -1474,96 +1774,104 @@
     </row>
     <row r="65" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A65" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:5" s="4" customFormat="1" ht="80">
+    <row r="66" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A66" s="25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="80">
       <c r="A67" s="25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:5">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" ht="22">
-      <c r="A69" s="22" t="s">
-        <v>69</v>
-      </c>
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A68" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" s="16" customFormat="1" ht="20">
-      <c r="A70" s="23" t="s">
+    <row r="70" spans="1:5" ht="22">
+      <c r="A70" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A71" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="24"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+    </row>
+    <row r="72" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
+      <c r="A72" s="25" t="s">
         <v>70</v>
-      </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="24"/>
-      <c r="D70" s="24"/>
-      <c r="E70" s="24"/>
-    </row>
-    <row r="71" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
-      <c r="A71" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="60">
-      <c r="A72" s="25" t="s">
-        <v>72</v>
       </c>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A73" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A74" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="20">
       <c r="A75" s="25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A76" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Kartläggning_skola.xlsx
+++ b/docs/Kartläggning_skola.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8A6F03-C5B3-374F-932C-D1D24EF8B3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C00CC7-1A8A-6340-9512-AAA59B0AA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="28240" windowHeight="16020" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="2640" yWindow="1220" windowWidth="28340" windowHeight="25540" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sammanfattning Övergripande" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>Skolsociala team</t>
   </si>
@@ -45,9 +45,6 @@
     <t>FRIENDS</t>
   </si>
   <si>
-    <t>PALS</t>
-  </si>
-  <si>
     <t>KiVa Skola</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>Det görs uppföljning av arbetets resultat för barn och ungdomar.</t>
   </si>
   <si>
-    <t>Vårdnadshavare, barn och unga involveras i utformningen av insatserna.</t>
-  </si>
-  <si>
     <t>Öppen förskola</t>
   </si>
   <si>
@@ -135,9 +129,6 @@
     <t>Det finns tydliga rutiner för samarbetet med till exempel socialtjänsten och hälso- och sjukvården, däribland barn- och ungdomspsykiatrin (BUP).</t>
   </si>
   <si>
-    <t>Närvarodata och  frånvarostatistik används som en utgångspunkt vid planering och resursfördelning.</t>
-  </si>
-  <si>
     <t>All skolpersonal och elevhälsan involveras i det närvarofrämjande arbetet.</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>Respektive förskola/skola/fritidshem har en gemensam strategi för att möjliggöra för hem och vårdnadshavare att bli delaktiga i frågor som rör elevens skolgång.</t>
   </si>
   <si>
-    <t>Respektive förskola/skola/fritidshem har gemensamma förhållningssätt i kontakter med vårdnadshavare och hemmen.</t>
-  </si>
-  <si>
     <t>Det finns skolsociala team i kommunen.</t>
   </si>
   <si>
@@ -201,9 +189,6 @@
     <t xml:space="preserve">SEL-program (Social Emotional Learning) </t>
   </si>
   <si>
-    <t>PBS, IBIS</t>
-  </si>
-  <si>
     <t>Olweusprogrammet</t>
   </si>
   <si>
@@ -216,9 +201,6 @@
     <t>Skol-Komet</t>
   </si>
   <si>
-    <t>Rörelsesatsning i skolan</t>
-  </si>
-  <si>
     <t>Machofabriken</t>
   </si>
   <si>
@@ -261,15 +243,9 @@
     <t xml:space="preserve">Arbetet dokumenteras och följs upp.  </t>
   </si>
   <si>
-    <t>Barn och unga involveras i planeringen och genomförandet av organiserade aktiviteter.</t>
-  </si>
-  <si>
     <t>Kryssa i de påståenden som stämmer för er kommun</t>
   </si>
   <si>
-    <t>Kartläggning GOD FÖRÄLDRA-BARNRELATION</t>
-  </si>
-  <si>
     <t>SAMMANFATTNING</t>
   </si>
   <si>
@@ -289,13 +265,37 @@
   </si>
   <si>
     <t>Kartläggning MÅLUPPFYLLELSE FÖRSKOLA OCH SKOLA</t>
+  </si>
+  <si>
+    <t>Barn, ungdomar och föräldrar involveras i utformningen av insatserna</t>
+  </si>
+  <si>
+    <t>Kommunen redovisar skillnader i närvaro för olika socioekonomiska områden.</t>
+  </si>
+  <si>
+    <t>Närvarodata- och frånvarostatistik används som en utgångspunkt vid planering och resursfördelning.</t>
+  </si>
+  <si>
+    <t>Respektive förskola/skola/fritidshem har gemensamma förhållningssätt i kontakter med föräldrarna och hemmen.</t>
+  </si>
+  <si>
+    <t>IBIS</t>
+  </si>
+  <si>
+    <t>Skolorna i vår kommun erbjuder kunskapsbaserade insatser för: Trygghetsfrämjande/våldsförebyggande - exempelvis:</t>
+  </si>
+  <si>
+    <t>Skolorna i vår kommun erbjuder kunskapsbaserade insatser för: Normkritik och inkludering - exempelvis:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Barn och ungdomars synpunkter och behov i inkluderas i utformningen av fältarbetet.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +347,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -554,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -630,6 +637,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1086,7 +1096,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="19">
       <c r="A1" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1094,36 +1104,36 @@
     </row>
     <row r="3" spans="1:6" ht="20">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="28" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="81" thickTop="1">
       <c r="A9" s="33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1133,7 +1143,7 @@
     </row>
     <row r="10" spans="1:6" ht="28" customHeight="1">
       <c r="A10" s="33" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1143,7 +1153,7 @@
     </row>
     <row r="11" spans="1:6" ht="40">
       <c r="A11" s="33" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1153,7 +1163,7 @@
     </row>
     <row r="12" spans="1:6" ht="60">
       <c r="A12" s="33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1163,7 +1173,7 @@
     </row>
     <row r="13" spans="1:6" ht="20">
       <c r="A13" s="34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1173,7 +1183,7 @@
     </row>
     <row r="14" spans="1:6" ht="60">
       <c r="A14" s="34" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1183,7 +1193,7 @@
     </row>
     <row r="15" spans="1:6" ht="60">
       <c r="A15" s="35" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1193,7 +1203,7 @@
     </row>
     <row r="16" spans="1:6" ht="20">
       <c r="A16" s="31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1203,12 +1213,12 @@
     </row>
     <row r="18" spans="1:1" ht="20">
       <c r="A18" s="32" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="20">
       <c r="A19" s="32" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1224,9 +1234,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1235,20 +1245,20 @@
   <sheetData>
     <row r="1" spans="1:7" ht="19">
       <c r="A1" s="12" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20">
       <c r="A3" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17">
       <c r="A4" s="27" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1256,16 +1266,16 @@
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="18" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickTop="1">
@@ -1276,7 +1286,7 @@
     </row>
     <row r="8" spans="1:7" ht="44">
       <c r="A8" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1285,10 +1295,10 @@
     </row>
     <row r="9" spans="1:7" s="16" customFormat="1" ht="80">
       <c r="A9" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1298,7 +1308,7 @@
     </row>
     <row r="10" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="A10" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1309,7 +1319,7 @@
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A11" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1320,7 +1330,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A12" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1331,7 +1341,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A13" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1342,7 +1352,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A14" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1353,7 +1363,7 @@
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A15" s="11" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1364,7 +1374,7 @@
     </row>
     <row r="16" spans="1:7" ht="38" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
@@ -1373,7 +1383,7 @@
     </row>
     <row r="17" spans="1:7" s="16" customFormat="1" ht="40">
       <c r="A17" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1384,7 +1394,7 @@
     </row>
     <row r="18" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A18" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1395,7 +1405,7 @@
     </row>
     <row r="19" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A19" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="2"/>
@@ -1406,7 +1416,7 @@
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A20" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1417,7 +1427,7 @@
     </row>
     <row r="21" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A21" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1428,7 +1438,7 @@
     </row>
     <row r="22" spans="1:7" ht="33" customHeight="1">
       <c r="A22" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
@@ -1437,128 +1447,128 @@
     </row>
     <row r="23" spans="1:7" s="16" customFormat="1" ht="40">
       <c r="A23" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A24" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="40">
-      <c r="A25" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="68" customHeight="1">
+    <row r="24" spans="1:7" s="16" customFormat="1" ht="40">
+      <c r="A24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" s="16" customFormat="1" ht="44" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A26" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="27" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A27" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="B27" s="5"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="40">
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="68" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:7" s="4" customFormat="1" ht="40">
       <c r="A29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="B29" s="5"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="33" customHeight="1">
-      <c r="A30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="60">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-    </row>
-    <row r="32" spans="1:7" s="4" customFormat="1" ht="60">
-      <c r="A32" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" s="4" customFormat="1" ht="80">
+    <row r="30" spans="1:7" s="4" customFormat="1" ht="40">
+      <c r="A30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="33" customHeight="1">
+      <c r="A31" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="60">
+      <c r="A32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+    </row>
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="60">
       <c r="A33" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" s="4" customFormat="1" ht="68" customHeight="1">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="80">
       <c r="A34" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>35</v>
+      </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" ht="40" customHeight="1">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="68" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" ht="40" customHeight="1">
+      <c r="A36" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" s="16" customFormat="1" ht="20">
-      <c r="A36" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-    </row>
-    <row r="37" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A37" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" s="16" customFormat="1" ht="20">
+      <c r="A37" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A38" s="25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
@@ -1566,7 +1576,7 @@
     </row>
     <row r="39" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A39" s="25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
@@ -1574,7 +1584,7 @@
     </row>
     <row r="40" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A40" s="25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
@@ -1582,55 +1592,55 @@
     </row>
     <row r="41" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A41" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="61" customHeight="1">
-      <c r="A42" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" s="16" customFormat="1" ht="60">
-      <c r="A43" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-    </row>
-    <row r="44" spans="1:4" s="4" customFormat="1" ht="40">
-      <c r="A44" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" s="4" customFormat="1" ht="20">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="40">
+      <c r="A42" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4" ht="61" customHeight="1">
+      <c r="A43" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" s="16" customFormat="1" ht="60">
+      <c r="A44" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+    </row>
+    <row r="45" spans="1:4" s="4" customFormat="1" ht="40">
       <c r="A45" s="26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" s="4" customFormat="1" ht="60">
-      <c r="A46" s="25" t="s">
-        <v>49</v>
+    <row r="46" spans="1:4" s="4" customFormat="1" ht="20">
+      <c r="A46" s="26" t="s">
+        <v>44</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" s="4" customFormat="1" ht="20">
-      <c r="A47" s="26" t="s">
-        <v>50</v>
+    <row r="47" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A47" s="36" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -1638,7 +1648,7 @@
     </row>
     <row r="48" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A48" s="26" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
@@ -1646,7 +1656,7 @@
     </row>
     <row r="49" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A49" s="26" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -1654,7 +1664,7 @@
     </row>
     <row r="50" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A50" s="26" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1662,7 +1672,7 @@
     </row>
     <row r="51" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A51" s="26" t="s">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -1670,7 +1680,7 @@
     </row>
     <row r="52" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A52" s="26" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -1678,7 +1688,7 @@
     </row>
     <row r="53" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A53" s="26" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
@@ -1686,15 +1696,15 @@
     </row>
     <row r="54" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A54" s="26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="1:4" s="4" customFormat="1" ht="20">
-      <c r="A55" s="26" t="s">
-        <v>55</v>
+    <row r="55" spans="1:4" s="4" customFormat="1" ht="80">
+      <c r="A55" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
@@ -1702,7 +1712,7 @@
     </row>
     <row r="56" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A56" s="26" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -1710,7 +1720,7 @@
     </row>
     <row r="57" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A57" s="26" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -1718,7 +1728,7 @@
     </row>
     <row r="58" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A58" s="26" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
@@ -1726,7 +1736,7 @@
     </row>
     <row r="59" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A59" s="26" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
@@ -1734,23 +1744,23 @@
     </row>
     <row r="60" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A60" s="26" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
+    <row r="61" spans="1:4" s="4" customFormat="1" ht="20">
       <c r="A61" s="26" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
-      <c r="A62" s="26" t="s">
-        <v>61</v>
+    <row r="62" spans="1:4" s="4" customFormat="1" ht="60">
+      <c r="A62" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
@@ -1758,7 +1768,7 @@
     </row>
     <row r="63" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A63" s="26" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
@@ -1766,15 +1776,15 @@
     </row>
     <row r="64" spans="1:4" s="4" customFormat="1" ht="19" customHeight="1">
       <c r="A64" s="26" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:5" s="4" customFormat="1" ht="40">
-      <c r="A65" s="25" t="s">
-        <v>64</v>
+    <row r="65" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1">
+      <c r="A65" s="26" t="s">
+        <v>56</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
@@ -1782,96 +1792,104 @@
     </row>
     <row r="66" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A66" s="25" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:5" s="4" customFormat="1" ht="80">
+    <row r="67" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A67" s="25" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="68" spans="1:5" s="4" customFormat="1" ht="80">
       <c r="A68" s="25" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
     </row>
-    <row r="69" spans="1:5">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" ht="22">
-      <c r="A70" s="22" t="s">
-        <v>68</v>
-      </c>
+    <row r="69" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A69" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:5">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" s="16" customFormat="1" ht="20">
-      <c r="A71" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="24"/>
-    </row>
-    <row r="72" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
-      <c r="A72" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="1:5" s="4" customFormat="1" ht="60">
+    <row r="71" spans="1:5" ht="22">
+      <c r="A71" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" s="16" customFormat="1" ht="20">
+      <c r="A72" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="24"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" s="4" customFormat="1" ht="98" customHeight="1">
       <c r="A73" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="74" spans="1:5" s="4" customFormat="1" ht="60">
       <c r="A74" s="25" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" s="4" customFormat="1" ht="20">
+    <row r="75" spans="1:5" s="4" customFormat="1" ht="40">
       <c r="A75" s="25" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" ht="40">
+    <row r="76" spans="1:5" s="4" customFormat="1" ht="20">
       <c r="A76" s="25" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="1:5" s="4" customFormat="1" ht="40">
+      <c r="A77" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Kartläggning_skola.xlsx
+++ b/docs/Kartläggning_skola.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clarala/DIDsteg2/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C00CC7-1A8A-6340-9512-AAA59B0AA22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A7401B-0E3F-BF44-9863-DA552725A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1220" windowWidth="28340" windowHeight="25540" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
+    <workbookView xWindow="2640" yWindow="500" windowWidth="28340" windowHeight="19620" activeTab="1" xr2:uid="{7BC09E43-1041-714B-B107-1A982B11F32C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sammanfattning Övergripande" sheetId="2" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2A8AD4-9408-FC48-AD17-DF1F4FB25F37}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1236,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4CC34EE-B55D-6C4C-A07E-2F5F91D32621}">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
